--- a/materials/HOU_2_drugs_and_sch.xlsx
+++ b/materials/HOU_2_drugs_and_sch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1500" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="6920" yWindow="12200" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Drugs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>OR</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0063972</t>
-  </si>
-  <si>
-    <t>XXX</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/29715654</t>
@@ -184,21 +181,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +479,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +527,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -556,12 +558,12 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -585,12 +587,12 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -610,20 +612,19 @@
       <c r="G4">
         <v>1451</v>
       </c>
-      <c r="H4">
-        <f>SUM(F4:G4)</f>
-        <v>2109</v>
+      <c r="H4" s="3">
+        <v>130152</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -638,16 +639,20 @@
         <v>3.49</v>
       </c>
       <c r="F5">
-        <v>528</v>
-      </c>
-      <c r="G5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5">
+        <v>823</v>
+      </c>
+      <c r="H5">
+        <f>SUM(F5:G5)</f>
+        <v>1142</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -670,10 +675,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -684,7 +689,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>9.3699999999999992</v>
@@ -698,7 +703,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>8.16</v>
@@ -712,7 +717,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>5.84</v>
@@ -726,7 +731,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>5.56</v>
@@ -740,7 +745,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>3.6</v>
